--- a/image/activitydefinition.xlsx
+++ b/image/activitydefinition.xlsx
@@ -1475,45 +1475,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.45703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="90.15234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.7890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.13671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="90.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.3046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.01171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="53.8359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="128.24609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="53.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="129.28125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/activitydefinition.xlsx
+++ b/image/activitydefinition.xlsx
@@ -963,7 +963,7 @@
     <t>ActivityDefinition.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the activity and where the request should fit into the workflow chain.</t>
@@ -1485,7 +1485,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/image/activitydefinition.xlsx
+++ b/image/activitydefinition.xlsx
@@ -963,7 +963,7 @@
     <t>ActivityDefinition.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the activity and where the request should fit into the workflow chain.</t>
@@ -1475,45 +1475,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="90.15234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.7890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.13671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="90.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.3046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.01171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="53.8359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="128.24609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="53.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="129.28125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/activitydefinition.xlsx
+++ b/image/activitydefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="424">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -390,10 +390,6 @@
   </si>
   <si>
     <t>ActivityDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the activity definition</t>
@@ -1475,45 +1471,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.58984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="90.0546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.01171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="90.15234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.7890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.13671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="53.828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="129.28125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="53.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.24609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2883,16 +2879,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2957,13 +2953,13 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2971,7 +2967,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2994,19 +2990,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -3055,7 +3051,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3064,7 +3060,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -3084,7 +3080,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3107,16 +3103,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3166,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3181,10 +3177,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3195,7 +3191,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3218,13 +3214,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3275,7 +3271,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3304,7 +3300,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3330,13 +3326,13 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3362,14 +3358,14 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3386,7 +3382,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>48</v>
@@ -3401,13 +3397,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3415,7 +3411,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3438,19 +3434,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3499,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3514,13 +3510,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3528,7 +3524,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3551,13 +3547,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3565,35 +3561,35 @@
         <v>40</v>
       </c>
       <c r="P19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W19" t="s" s="2">
+      <c r="X19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3610,7 +3606,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3625,7 +3621,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3639,11 +3635,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3662,16 +3658,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3721,7 +3717,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3736,13 +3732,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3750,7 +3746,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3773,19 +3769,19 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3834,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3849,13 +3845,13 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3863,7 +3859,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3886,16 +3882,16 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3945,7 +3941,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3960,10 +3956,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3974,7 +3970,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3997,16 +3993,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4056,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4071,10 +4067,10 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4085,7 +4081,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4108,19 +4104,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4169,7 +4165,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4184,10 +4180,10 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -4198,7 +4194,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4221,16 +4217,16 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4256,14 +4252,14 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4280,7 +4276,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4295,10 +4291,10 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4309,7 +4305,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4332,16 +4328,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4391,7 +4387,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4406,13 +4402,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>119</v>
@@ -4420,7 +4416,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4443,13 +4439,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4500,7 +4496,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4518,7 +4514,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4529,11 +4525,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4552,17 +4548,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4611,7 +4607,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4626,10 +4622,10 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4640,7 +4636,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4663,16 +4659,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4722,7 +4718,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4737,10 +4733,10 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4751,7 +4747,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4774,19 +4770,19 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4835,7 +4831,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4850,10 +4846,10 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4864,7 +4860,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4887,19 +4883,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4948,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4963,10 +4959,10 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4977,7 +4973,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5000,17 +4996,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5035,14 +5031,14 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5077,7 +5073,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5088,7 +5084,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5111,13 +5107,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5168,7 +5164,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5186,7 +5182,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5197,7 +5193,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5220,13 +5216,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5277,7 +5273,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5306,7 +5302,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5329,13 +5325,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5386,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5404,7 +5400,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5415,7 +5411,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5438,13 +5434,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5495,7 +5491,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5513,7 +5509,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5524,7 +5520,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5547,19 +5543,19 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5608,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5626,7 +5622,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5637,7 +5633,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5660,13 +5656,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5717,7 +5713,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5735,7 +5731,7 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5746,7 +5742,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5772,13 +5768,13 @@
         <v>67</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5804,14 +5800,14 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5828,7 +5824,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5846,7 +5842,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5857,7 +5853,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5880,17 +5876,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5939,7 +5935,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5968,7 +5964,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5991,19 +5987,19 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6028,14 +6024,14 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6070,7 +6066,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -6081,7 +6077,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6107,10 +6103,10 @@
         <v>67</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6137,14 +6133,14 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6190,7 +6186,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6216,10 +6212,10 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6246,14 +6242,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6270,7 +6266,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6299,7 +6295,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6322,16 +6318,16 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6381,7 +6377,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6410,7 +6406,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6433,17 +6429,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6492,7 +6488,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6510,7 +6506,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6521,11 +6517,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6544,19 +6540,19 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6605,7 +6601,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6623,7 +6619,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6634,7 +6630,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6657,13 +6653,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6714,7 +6710,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6726,13 +6722,13 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6743,7 +6739,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6766,13 +6762,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6823,7 +6819,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6841,7 +6837,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6852,7 +6848,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6881,7 +6877,7 @@
         <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>96</v>
@@ -6934,7 +6930,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6952,7 +6948,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6963,11 +6959,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6989,10 +6985,10 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>96</v>
@@ -7047,7 +7043,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7076,7 +7072,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7102,10 +7098,10 @@
         <v>67</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7132,14 +7128,14 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7156,7 +7152,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>48</v>
@@ -7174,7 +7170,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7185,7 +7181,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7208,13 +7204,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7241,14 +7237,14 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7265,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7283,7 +7279,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7294,7 +7290,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7317,13 +7313,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7350,14 +7346,14 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7392,7 +7388,7 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7403,11 +7399,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7426,13 +7422,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7483,7 +7479,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7501,7 +7497,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7512,7 +7508,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7535,16 +7531,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7594,7 +7590,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7612,7 +7608,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7623,7 +7619,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7646,19 +7642,19 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7683,14 +7679,14 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7725,7 +7721,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7736,7 +7732,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7759,17 +7755,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7818,7 +7814,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7847,7 +7843,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7870,17 +7866,17 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7929,7 +7925,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7958,7 +7954,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7981,13 +7977,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8038,7 +8034,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8067,7 +8063,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8090,16 +8086,16 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8149,7 +8145,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8178,7 +8174,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8201,16 +8197,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8260,7 +8256,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8272,7 +8268,7 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
@@ -8289,7 +8285,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8312,13 +8308,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8369,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8387,7 +8383,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8398,7 +8394,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8427,7 +8423,7 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>96</v>
@@ -8480,7 +8476,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8498,7 +8494,7 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8509,11 +8505,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8535,10 +8531,10 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>96</v>
@@ -8593,7 +8589,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8622,7 +8618,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8645,16 +8641,16 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8704,7 +8700,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>48</v>
@@ -8733,7 +8729,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8756,16 +8752,16 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8815,7 +8811,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>48</v>
